--- a/EuromaWeb/Content/Template/Euroma_Ordinato.xlsx
+++ b/EuromaWeb/Content/Template/Euroma_Ordinato.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Valori" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="29">
   <si>
     <t xml:space="preserve">Dati dal/al</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ricambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuovi Clienti</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -68,6 +71,9 @@
     <t xml:space="preserve">Totale</t>
   </si>
   <si>
+    <t xml:space="preserve">Nr. nuovi clienti: 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITALIA</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESTERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Revenue:</t>
   </si>
   <si>
     <t xml:space="preserve">Cliente</t>
@@ -279,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +339,10 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -463,9 +476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>425160</xdr:rowOff>
+      <xdr:rowOff>424440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -479,7 +492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7920" y="0"/>
-          <a:ext cx="1685880" cy="425160"/>
+          <a:ext cx="1685160" cy="424440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,10 +512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX44"/>
+  <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,381 +786,281 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW5" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="10" t="n">
-        <f aca="false">SUM(A6:AW6)</f>
-        <v>0</v>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -1836,457 +1749,506 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <f aca="false">SUM(B6:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9" t="n">
-        <f aca="false">SUM(D6:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9" t="n">
-        <f aca="false">SUM(F6:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9" t="n">
-        <f aca="false">SUM(H6:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9" t="n">
-        <f aca="false">SUM(J6:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="9" t="n">
-        <f aca="false">SUM(L6:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="9" t="n">
-        <f aca="false">SUM(N6:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="9" t="n">
-        <f aca="false">SUM(P6:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="9" t="n">
-        <f aca="false">SUM(R6:S11)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="9" t="n">
-        <f aca="false">SUM(T6:U11)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="9" t="n">
-        <f aca="false">SUM(V6:W11)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="9" t="n">
-        <f aca="false">SUM(X6:Y11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="9" t="n">
-        <f aca="false">SUM(Z6:AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="9" t="n">
-        <f aca="false">SUM(AB6:AC11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="9" t="n">
-        <f aca="false">SUM(AD6:AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="9" t="n">
-        <f aca="false">SUM(AF6:AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="9" t="n">
-        <f aca="false">SUM(AH6:AI11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="9" t="n">
-        <f aca="false">SUM(AJ6:AK11)</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="9" t="n">
-        <f aca="false">SUM(AL6:AM11)</f>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="9" t="n">
-        <f aca="false">SUM(AN6:AO11)</f>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="9" t="n">
-        <f aca="false">SUM(AP6:AQ11)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="9" t="n">
-        <f aca="false">SUM(AR6:AS11)</f>
-        <v>0</v>
-      </c>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="9" t="n">
-        <f aca="false">SUM(AT6:AU11)</f>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="9" t="n">
-        <f aca="false">SUM(AV6:AW11)</f>
-        <v>0</v>
-      </c>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="10" t="n">
+        <f aca="false">SUM(A12:AW12)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <f aca="false">SUM(B7:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="n">
+        <f aca="false">SUM(D7:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9" t="n">
+        <f aca="false">SUM(F7:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9" t="n">
+        <f aca="false">SUM(H7:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9" t="n">
+        <f aca="false">SUM(J7:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9" t="n">
+        <f aca="false">SUM(L7:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9" t="n">
+        <f aca="false">SUM(N7:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="9" t="n">
+        <f aca="false">SUM(P7:Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9" t="n">
+        <f aca="false">SUM(R7:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="9" t="n">
+        <f aca="false">SUM(T7:U12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="9" t="n">
+        <f aca="false">SUM(V7:W12)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="9" t="n">
+        <f aca="false">SUM(X7:Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="9" t="n">
+        <f aca="false">SUM(Z7:AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="9" t="n">
+        <f aca="false">SUM(AB7:AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="9" t="n">
+        <f aca="false">SUM(AD7:AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="9" t="n">
+        <f aca="false">SUM(AF7:AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="9" t="n">
+        <f aca="false">SUM(AH7:AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="9" t="n">
+        <f aca="false">SUM(AJ7:AK12)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="9" t="n">
+        <f aca="false">SUM(AL7:AM12)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="9" t="n">
+        <f aca="false">SUM(AN7:AO12)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="9" t="n">
+        <f aca="false">SUM(AP7:AQ12)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="9" t="n">
+        <f aca="false">SUM(AR7:AS12)</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="9" t="n">
+        <f aca="false">SUM(AT7:AU12)</f>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="9" t="n">
+        <f aca="false">SUM(AV7:AW12)</f>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="12"/>
       <c r="AX13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14" t="str">
-        <f aca="false">B3</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="14" t="str">
-        <f aca="false">D3</f>
-        <v>-</v>
-      </c>
-      <c r="D14" s="14" t="str">
-        <f aca="false">F3</f>
-        <v>-</v>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f aca="false">F3</f>
-        <v>-</v>
-      </c>
-      <c r="F14" s="14" t="str">
-        <f aca="false">J3</f>
-        <v>-</v>
-      </c>
-      <c r="G14" s="14" t="str">
-        <f aca="false">H3</f>
-        <v>-</v>
-      </c>
-      <c r="H14" s="14" t="str">
-        <f aca="false">N3</f>
-        <v>-</v>
-      </c>
-      <c r="I14" s="14" t="str">
-        <f aca="false">J3</f>
-        <v>-</v>
-      </c>
-      <c r="J14" s="14" t="str">
-        <f aca="false">R3</f>
-        <v>-</v>
-      </c>
-      <c r="K14" s="14" t="str">
-        <f aca="false">L3</f>
-        <v>-</v>
-      </c>
-      <c r="L14" s="14" t="str">
-        <f aca="false">V3</f>
-        <v>-</v>
-      </c>
-      <c r="M14" s="14" t="str">
-        <f aca="false">N3</f>
-        <v>-</v>
-      </c>
-      <c r="N14" s="14" t="str">
-        <f aca="false">Z3</f>
-        <v>-</v>
-      </c>
-      <c r="O14" s="14" t="str">
-        <f aca="false">P3</f>
-        <v>-</v>
-      </c>
-      <c r="P14" s="14" t="str">
-        <f aca="false">AD3</f>
-        <v>-</v>
-      </c>
-      <c r="Q14" s="14" t="str">
-        <f aca="false">R3</f>
-        <v>-</v>
-      </c>
-      <c r="R14" s="14" t="str">
-        <f aca="false">AH3</f>
-        <v>-</v>
-      </c>
-      <c r="S14" s="14" t="str">
-        <f aca="false">T3</f>
-        <v>-</v>
-      </c>
-      <c r="T14" s="14" t="str">
-        <f aca="false">AL3</f>
-        <v>-</v>
-      </c>
-      <c r="U14" s="14" t="str">
-        <f aca="false">V3</f>
-        <v>-</v>
-      </c>
-      <c r="V14" s="14" t="str">
-        <f aca="false">AP3</f>
-        <v>-</v>
-      </c>
-      <c r="W14" s="14" t="str">
-        <f aca="false">X3</f>
-        <v>-</v>
-      </c>
-      <c r="X14" s="14" t="str">
-        <f aca="false">AT3</f>
-        <v>-</v>
-      </c>
-      <c r="Y14" s="14" t="str">
-        <f aca="false">Z3</f>
-        <v>-</v>
-      </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AW14" s="15" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AX14" s="10" t="n">
-        <f aca="false">SUM(AX6:AX11)</f>
-        <v>0</v>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AX14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15" t="str">
+        <f aca="false">B3</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f aca="false">D3</f>
+        <v>-</v>
+      </c>
+      <c r="D15" s="15" t="str">
+        <f aca="false">F3</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f aca="false">F3</f>
+        <v>-</v>
+      </c>
+      <c r="F15" s="15" t="str">
+        <f aca="false">J3</f>
+        <v>-</v>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f aca="false">H3</f>
+        <v>-</v>
+      </c>
+      <c r="H15" s="15" t="str">
+        <f aca="false">N3</f>
+        <v>-</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f aca="false">J3</f>
+        <v>-</v>
+      </c>
+      <c r="J15" s="15" t="str">
+        <f aca="false">R3</f>
+        <v>-</v>
+      </c>
+      <c r="K15" s="15" t="str">
+        <f aca="false">L3</f>
+        <v>-</v>
+      </c>
+      <c r="L15" s="15" t="str">
+        <f aca="false">V3</f>
+        <v>-</v>
+      </c>
+      <c r="M15" s="15" t="str">
+        <f aca="false">N3</f>
+        <v>-</v>
+      </c>
+      <c r="N15" s="15" t="str">
+        <f aca="false">Z3</f>
+        <v>-</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f aca="false">P3</f>
+        <v>-</v>
+      </c>
+      <c r="P15" s="15" t="str">
+        <f aca="false">AD3</f>
+        <v>-</v>
+      </c>
+      <c r="Q15" s="15" t="str">
+        <f aca="false">R3</f>
+        <v>-</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f aca="false">AH3</f>
+        <v>-</v>
+      </c>
+      <c r="S15" s="15" t="str">
+        <f aca="false">T3</f>
+        <v>-</v>
+      </c>
+      <c r="T15" s="15" t="str">
+        <f aca="false">AL3</f>
+        <v>-</v>
+      </c>
+      <c r="U15" s="15" t="str">
+        <f aca="false">V3</f>
+        <v>-</v>
+      </c>
+      <c r="V15" s="15" t="str">
+        <f aca="false">AP3</f>
+        <v>-</v>
+      </c>
+      <c r="W15" s="15" t="str">
+        <f aca="false">X3</f>
+        <v>-</v>
+      </c>
+      <c r="X15" s="15" t="str">
+        <f aca="false">AT3</f>
+        <v>-</v>
+      </c>
+      <c r="Y15" s="15" t="str">
+        <f aca="false">Z3</f>
+        <v>-</v>
+      </c>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AW15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX15" s="10" t="n">
+        <f aca="false">SUM(AX7:AX12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9" t="str">
-        <f aca="false">B6</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f aca="false">D6</f>
-        <v>-</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f aca="false">F6</f>
-        <v>-</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f aca="false">H6</f>
-        <v>-</v>
-      </c>
-      <c r="F16" s="9" t="str">
-        <f aca="false">J6</f>
-        <v>-</v>
-      </c>
-      <c r="G16" s="9" t="str">
-        <f aca="false">L6</f>
-        <v>-</v>
-      </c>
-      <c r="H16" s="9" t="str">
-        <f aca="false">N6</f>
-        <v>-</v>
-      </c>
-      <c r="I16" s="9" t="str">
-        <f aca="false">P6</f>
-        <v>-</v>
-      </c>
-      <c r="J16" s="9" t="str">
-        <f aca="false">R6</f>
-        <v>-</v>
-      </c>
-      <c r="K16" s="9" t="str">
-        <f aca="false">T6</f>
-        <v>-</v>
-      </c>
-      <c r="L16" s="9" t="str">
-        <f aca="false">V6</f>
-        <v>-</v>
-      </c>
-      <c r="M16" s="9" t="str">
-        <f aca="false">X6</f>
-        <v>-</v>
-      </c>
-      <c r="N16" s="9" t="str">
-        <f aca="false">Z6</f>
-        <v>-</v>
-      </c>
-      <c r="O16" s="9" t="str">
-        <f aca="false">AB6</f>
-        <v>-</v>
-      </c>
-      <c r="P16" s="9" t="str">
-        <f aca="false">AD6</f>
-        <v>-</v>
-      </c>
-      <c r="Q16" s="9" t="str">
-        <f aca="false">AF6</f>
-        <v>-</v>
-      </c>
-      <c r="R16" s="9" t="str">
-        <f aca="false">AH6</f>
-        <v>-</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f aca="false">AJ6</f>
-        <v>-</v>
-      </c>
-      <c r="T16" s="9" t="str">
-        <f aca="false">AL6</f>
-        <v>-</v>
-      </c>
-      <c r="U16" s="9" t="str">
-        <f aca="false">AN6</f>
-        <v>-</v>
-      </c>
-      <c r="V16" s="9" t="str">
-        <f aca="false">AP6</f>
-        <v>-</v>
-      </c>
-      <c r="W16" s="9" t="str">
-        <f aca="false">AR6</f>
-        <v>-</v>
-      </c>
-      <c r="X16" s="9" t="str">
-        <f aca="false">AT6</f>
-        <v>-</v>
-      </c>
-      <c r="Y16" s="9" t="str">
-        <f aca="false">AV6</f>
-        <v>-</v>
-      </c>
-      <c r="Z16" s="10" t="n">
-        <f aca="false">SUM(A16:Y16)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -2392,8 +2354,8 @@
         <f aca="false">SUM(A17:Y17)</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -2499,6 +2461,8 @@
         <f aca="false">SUM(A18:Y18)</f>
         <v>0</v>
       </c>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -2815,502 +2779,502 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="n">
-        <f aca="false">SUM(B16:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <f aca="false">SUM(C16:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <f aca="false">SUM(D16:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">SUM(E16:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <f aca="false">SUM(F16:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <f aca="false">SUM(G16:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <f aca="false">SUM(H16:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <f aca="false">SUM(I16:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <f aca="false">SUM(J16:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <f aca="false">SUM(K16:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <f aca="false">SUM(L16:L20)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="12" t="n">
-        <f aca="false">SUM(M16:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="12" t="n">
-        <f aca="false">SUM(N16:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="12" t="n">
-        <f aca="false">SUM(O16:O20)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="12" t="n">
-        <f aca="false">SUM(P16:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="12" t="n">
-        <f aca="false">SUM(Q16:Q20)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="12" t="n">
-        <f aca="false">SUM(R16:R20)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="12" t="n">
-        <f aca="false">SUM(S16:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="12" t="n">
-        <f aca="false">SUM(T16:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="12" t="n">
-        <f aca="false">SUM(U16:U20)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="12" t="n">
-        <f aca="false">SUM(V16:V20)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="12" t="n">
-        <f aca="false">SUM(W16:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="12" t="n">
-        <f aca="false">SUM(X16:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="12" t="n">
-        <f aca="false">SUM(Y16:Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="10"/>
+      <c r="B22" s="9" t="str">
+        <f aca="false">B12</f>
+        <v>-</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f aca="false">D12</f>
+        <v>-</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f aca="false">F12</f>
+        <v>-</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f aca="false">H12</f>
+        <v>-</v>
+      </c>
+      <c r="F22" s="9" t="str">
+        <f aca="false">J12</f>
+        <v>-</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f aca="false">L12</f>
+        <v>-</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f aca="false">N12</f>
+        <v>-</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f aca="false">P12</f>
+        <v>-</v>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f aca="false">R12</f>
+        <v>-</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f aca="false">T12</f>
+        <v>-</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f aca="false">V12</f>
+        <v>-</v>
+      </c>
+      <c r="M22" s="9" t="str">
+        <f aca="false">X12</f>
+        <v>-</v>
+      </c>
+      <c r="N22" s="9" t="str">
+        <f aca="false">Z12</f>
+        <v>-</v>
+      </c>
+      <c r="O22" s="9" t="str">
+        <f aca="false">AB12</f>
+        <v>-</v>
+      </c>
+      <c r="P22" s="9" t="str">
+        <f aca="false">AD12</f>
+        <v>-</v>
+      </c>
+      <c r="Q22" s="9" t="str">
+        <f aca="false">AF12</f>
+        <v>-</v>
+      </c>
+      <c r="R22" s="9" t="str">
+        <f aca="false">AH12</f>
+        <v>-</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f aca="false">AJ12</f>
+        <v>-</v>
+      </c>
+      <c r="T22" s="9" t="str">
+        <f aca="false">AL12</f>
+        <v>-</v>
+      </c>
+      <c r="U22" s="9" t="str">
+        <f aca="false">AN12</f>
+        <v>-</v>
+      </c>
+      <c r="V22" s="9" t="str">
+        <f aca="false">AP12</f>
+        <v>-</v>
+      </c>
+      <c r="W22" s="9" t="str">
+        <f aca="false">AR12</f>
+        <v>-</v>
+      </c>
+      <c r="X22" s="9" t="str">
+        <f aca="false">AT12</f>
+        <v>-</v>
+      </c>
+      <c r="Y22" s="9" t="str">
+        <f aca="false">AV12</f>
+        <v>-</v>
+      </c>
+      <c r="Z22" s="10" t="n">
+        <f aca="false">SUM(A22:Y22)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="Y23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="10" t="n">
-        <f aca="false">SUM(Z16:Z21)</f>
-        <v>0</v>
-      </c>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="n">
+        <f aca="false">SUM(B17:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <f aca="false">SUM(C17:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="n">
+        <f aca="false">SUM(D17:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="n">
+        <f aca="false">SUM(E17:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <f aca="false">SUM(F17:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <f aca="false">SUM(G17:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <f aca="false">SUM(H17:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="n">
+        <f aca="false">SUM(I17:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <f aca="false">SUM(J17:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="12" t="n">
+        <f aca="false">SUM(K17:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="n">
+        <f aca="false">SUM(L17:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <f aca="false">SUM(M17:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="12" t="n">
+        <f aca="false">SUM(N17:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="n">
+        <f aca="false">SUM(O17:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12" t="n">
+        <f aca="false">SUM(P17:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12" t="n">
+        <f aca="false">SUM(Q17:Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="12" t="n">
+        <f aca="false">SUM(R17:R21)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="12" t="n">
+        <f aca="false">SUM(S17:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="12" t="n">
+        <f aca="false">SUM(T17:T21)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="12" t="n">
+        <f aca="false">SUM(U17:U21)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="12" t="n">
+        <f aca="false">SUM(V17:V21)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="12" t="n">
+        <f aca="false">SUM(W17:W21)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="12" t="n">
+        <f aca="false">SUM(X17:X21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="12" t="n">
+        <f aca="false">SUM(Y17:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="str">
-        <f aca="false">B14</f>
-        <v>-</v>
-      </c>
-      <c r="C24" s="17" t="str">
-        <f aca="false">D3</f>
-        <v>-</v>
-      </c>
-      <c r="D24" s="17" t="str">
-        <f aca="false">D14</f>
-        <v>-</v>
-      </c>
-      <c r="E24" s="17" t="str">
-        <f aca="false">F3</f>
-        <v>-</v>
-      </c>
-      <c r="F24" s="17" t="str">
-        <f aca="false">F14</f>
-        <v>-</v>
-      </c>
-      <c r="G24" s="17" t="str">
-        <f aca="false">H3</f>
-        <v>-</v>
-      </c>
-      <c r="H24" s="17" t="str">
-        <f aca="false">H14</f>
-        <v>-</v>
-      </c>
-      <c r="I24" s="17" t="str">
-        <f aca="false">J3</f>
-        <v>-</v>
-      </c>
-      <c r="J24" s="17" t="str">
-        <f aca="false">J14</f>
-        <v>-</v>
-      </c>
-      <c r="K24" s="17" t="str">
-        <f aca="false">L3</f>
-        <v>-</v>
-      </c>
-      <c r="L24" s="17" t="str">
-        <f aca="false">L14</f>
-        <v>-</v>
-      </c>
-      <c r="M24" s="17" t="str">
-        <f aca="false">N3</f>
-        <v>-</v>
-      </c>
-      <c r="N24" s="17" t="str">
-        <f aca="false">N14</f>
-        <v>-</v>
-      </c>
-      <c r="O24" s="17" t="str">
-        <f aca="false">P3</f>
-        <v>-</v>
-      </c>
-      <c r="P24" s="17" t="str">
-        <f aca="false">P14</f>
-        <v>-</v>
-      </c>
-      <c r="Q24" s="17" t="str">
-        <f aca="false">R3</f>
-        <v>-</v>
-      </c>
-      <c r="R24" s="17" t="str">
-        <f aca="false">R14</f>
-        <v>-</v>
-      </c>
-      <c r="S24" s="17" t="str">
-        <f aca="false">T3</f>
-        <v>-</v>
-      </c>
-      <c r="T24" s="17" t="str">
-        <f aca="false">T14</f>
-        <v>-</v>
-      </c>
-      <c r="U24" s="17" t="str">
-        <f aca="false">V3</f>
-        <v>-</v>
-      </c>
-      <c r="V24" s="17" t="str">
-        <f aca="false">V14</f>
-        <v>-</v>
-      </c>
-      <c r="W24" s="17" t="str">
-        <f aca="false">X3</f>
-        <v>-</v>
-      </c>
-      <c r="X24" s="17" t="str">
-        <f aca="false">X14</f>
-        <v>-</v>
-      </c>
-      <c r="Y24" s="17" t="str">
-        <f aca="false">Z3</f>
-        <v>-</v>
-      </c>
-      <c r="Z24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="Y24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="10" t="n">
+        <f aca="false">SUM(Z17:Z22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="X25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="18" t="s">
-        <v>4</v>
+      <c r="A25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="18" t="str">
+        <f aca="false">B15</f>
+        <v>-</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f aca="false">D3</f>
+        <v>-</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f aca="false">D15</f>
+        <v>-</v>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f aca="false">F3</f>
+        <v>-</v>
+      </c>
+      <c r="F25" s="18" t="str">
+        <f aca="false">F15</f>
+        <v>-</v>
+      </c>
+      <c r="G25" s="18" t="str">
+        <f aca="false">H3</f>
+        <v>-</v>
+      </c>
+      <c r="H25" s="18" t="str">
+        <f aca="false">H15</f>
+        <v>-</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f aca="false">J3</f>
+        <v>-</v>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f aca="false">J15</f>
+        <v>-</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f aca="false">L3</f>
+        <v>-</v>
+      </c>
+      <c r="L25" s="18" t="str">
+        <f aca="false">L15</f>
+        <v>-</v>
+      </c>
+      <c r="M25" s="18" t="str">
+        <f aca="false">N3</f>
+        <v>-</v>
+      </c>
+      <c r="N25" s="18" t="str">
+        <f aca="false">N15</f>
+        <v>-</v>
+      </c>
+      <c r="O25" s="18" t="str">
+        <f aca="false">P3</f>
+        <v>-</v>
+      </c>
+      <c r="P25" s="18" t="str">
+        <f aca="false">P15</f>
+        <v>-</v>
+      </c>
+      <c r="Q25" s="18" t="str">
+        <f aca="false">R3</f>
+        <v>-</v>
+      </c>
+      <c r="R25" s="18" t="str">
+        <f aca="false">R15</f>
+        <v>-</v>
+      </c>
+      <c r="S25" s="18" t="str">
+        <f aca="false">T3</f>
+        <v>-</v>
+      </c>
+      <c r="T25" s="18" t="str">
+        <f aca="false">T15</f>
+        <v>-</v>
+      </c>
+      <c r="U25" s="18" t="str">
+        <f aca="false">V3</f>
+        <v>-</v>
+      </c>
+      <c r="V25" s="18" t="str">
+        <f aca="false">V15</f>
+        <v>-</v>
+      </c>
+      <c r="W25" s="18" t="str">
+        <f aca="false">X3</f>
+        <v>-</v>
+      </c>
+      <c r="X25" s="18" t="str">
+        <f aca="false">X15</f>
+        <v>-</v>
+      </c>
+      <c r="Y25" s="18" t="str">
+        <f aca="false">Z3</f>
+        <v>-</v>
       </c>
       <c r="Z25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="19" t="str">
-        <f aca="false">C6</f>
-        <v>-</v>
-      </c>
-      <c r="C26" s="19" t="str">
-        <f aca="false">E6</f>
-        <v>-</v>
-      </c>
-      <c r="D26" s="19" t="str">
-        <f aca="false">G6</f>
-        <v>-</v>
-      </c>
-      <c r="E26" s="19" t="str">
-        <f aca="false">I6</f>
-        <v>-</v>
-      </c>
-      <c r="F26" s="19" t="str">
-        <f aca="false">K6</f>
-        <v>-</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <f aca="false">M6</f>
-        <v>-</v>
-      </c>
-      <c r="H26" s="19" t="str">
-        <f aca="false">O6</f>
-        <v>-</v>
-      </c>
-      <c r="I26" s="19" t="str">
-        <f aca="false">Q6</f>
-        <v>-</v>
-      </c>
-      <c r="J26" s="19" t="str">
-        <f aca="false">S6</f>
-        <v>-</v>
-      </c>
-      <c r="K26" s="19" t="str">
-        <f aca="false">U6</f>
-        <v>-</v>
-      </c>
-      <c r="L26" s="19" t="str">
-        <f aca="false">W6</f>
-        <v>-</v>
-      </c>
-      <c r="M26" s="19" t="str">
-        <f aca="false">Y6</f>
-        <v>-</v>
-      </c>
-      <c r="N26" s="19" t="str">
-        <f aca="false">AA6</f>
-        <v>-</v>
-      </c>
-      <c r="O26" s="19" t="str">
-        <f aca="false">AC6</f>
-        <v>-</v>
-      </c>
-      <c r="P26" s="19" t="str">
-        <f aca="false">AE6</f>
-        <v>-</v>
-      </c>
-      <c r="Q26" s="19" t="str">
-        <f aca="false">AG6</f>
-        <v>-</v>
-      </c>
-      <c r="R26" s="19" t="str">
-        <f aca="false">AI6</f>
-        <v>-</v>
-      </c>
-      <c r="S26" s="19" t="str">
-        <f aca="false">AK6</f>
-        <v>-</v>
-      </c>
-      <c r="T26" s="19" t="str">
-        <f aca="false">AM6</f>
-        <v>-</v>
-      </c>
-      <c r="U26" s="19" t="str">
-        <f aca="false">AO6</f>
-        <v>-</v>
-      </c>
-      <c r="V26" s="19" t="str">
-        <f aca="false">AQ6</f>
-        <v>-</v>
-      </c>
-      <c r="W26" s="19" t="str">
-        <f aca="false">AS6</f>
-        <v>-</v>
-      </c>
-      <c r="X26" s="19" t="str">
-        <f aca="false">AU6</f>
-        <v>-</v>
-      </c>
-      <c r="Y26" s="19" t="str">
-        <f aca="false">AW6</f>
-        <v>-</v>
-      </c>
-      <c r="Z26" s="10" t="n">
-        <f aca="false">SUM(A26:Y26)</f>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="19" t="str">
+      <c r="B27" s="20" t="str">
         <f aca="false">C7</f>
         <v>-</v>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C27" s="20" t="str">
         <f aca="false">E7</f>
         <v>-</v>
       </c>
-      <c r="D27" s="19" t="str">
+      <c r="D27" s="20" t="str">
         <f aca="false">G7</f>
         <v>-</v>
       </c>
-      <c r="E27" s="19" t="str">
+      <c r="E27" s="20" t="str">
         <f aca="false">I7</f>
         <v>-</v>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="20" t="str">
         <f aca="false">K7</f>
         <v>-</v>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="20" t="str">
         <f aca="false">M7</f>
         <v>-</v>
       </c>
-      <c r="H27" s="19" t="str">
+      <c r="H27" s="20" t="str">
         <f aca="false">O7</f>
         <v>-</v>
       </c>
-      <c r="I27" s="19" t="str">
+      <c r="I27" s="20" t="str">
         <f aca="false">Q7</f>
         <v>-</v>
       </c>
-      <c r="J27" s="19" t="str">
+      <c r="J27" s="20" t="str">
         <f aca="false">S7</f>
         <v>-</v>
       </c>
-      <c r="K27" s="19" t="str">
+      <c r="K27" s="20" t="str">
         <f aca="false">U7</f>
         <v>-</v>
       </c>
-      <c r="L27" s="19" t="str">
+      <c r="L27" s="20" t="str">
         <f aca="false">W7</f>
         <v>-</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="20" t="str">
         <f aca="false">Y7</f>
         <v>-</v>
       </c>
-      <c r="N27" s="19" t="str">
+      <c r="N27" s="20" t="str">
         <f aca="false">AA7</f>
         <v>-</v>
       </c>
-      <c r="O27" s="19" t="str">
+      <c r="O27" s="20" t="str">
         <f aca="false">AC7</f>
         <v>-</v>
       </c>
-      <c r="P27" s="19" t="str">
+      <c r="P27" s="20" t="str">
         <f aca="false">AE7</f>
         <v>-</v>
       </c>
-      <c r="Q27" s="19" t="str">
+      <c r="Q27" s="20" t="str">
         <f aca="false">AG7</f>
         <v>-</v>
       </c>
-      <c r="R27" s="19" t="str">
+      <c r="R27" s="20" t="str">
         <f aca="false">AI7</f>
         <v>-</v>
       </c>
-      <c r="S27" s="19" t="str">
+      <c r="S27" s="20" t="str">
         <f aca="false">AK7</f>
         <v>-</v>
       </c>
-      <c r="T27" s="19" t="str">
+      <c r="T27" s="20" t="str">
         <f aca="false">AM7</f>
         <v>-</v>
       </c>
-      <c r="U27" s="19" t="str">
+      <c r="U27" s="20" t="str">
         <f aca="false">AO7</f>
         <v>-</v>
       </c>
-      <c r="V27" s="19" t="str">
+      <c r="V27" s="20" t="str">
         <f aca="false">AQ7</f>
         <v>-</v>
       </c>
-      <c r="W27" s="19" t="str">
+      <c r="W27" s="20" t="str">
         <f aca="false">AS7</f>
         <v>-</v>
       </c>
-      <c r="X27" s="19" t="str">
+      <c r="X27" s="20" t="str">
         <f aca="false">AU7</f>
         <v>-</v>
       </c>
-      <c r="Y27" s="19" t="str">
+      <c r="Y27" s="20" t="str">
         <f aca="false">AW7</f>
         <v>-</v>
       </c>
@@ -3323,99 +3287,99 @@
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="20" t="str">
         <f aca="false">C8</f>
         <v>-</v>
       </c>
-      <c r="C28" s="19" t="str">
+      <c r="C28" s="20" t="str">
         <f aca="false">E8</f>
         <v>-</v>
       </c>
-      <c r="D28" s="19" t="str">
+      <c r="D28" s="20" t="str">
         <f aca="false">G8</f>
         <v>-</v>
       </c>
-      <c r="E28" s="19" t="str">
+      <c r="E28" s="20" t="str">
         <f aca="false">I8</f>
         <v>-</v>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="20" t="str">
         <f aca="false">K8</f>
         <v>-</v>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="20" t="str">
         <f aca="false">M8</f>
         <v>-</v>
       </c>
-      <c r="H28" s="19" t="str">
+      <c r="H28" s="20" t="str">
         <f aca="false">O8</f>
         <v>-</v>
       </c>
-      <c r="I28" s="19" t="str">
+      <c r="I28" s="20" t="str">
         <f aca="false">Q8</f>
         <v>-</v>
       </c>
-      <c r="J28" s="19" t="str">
+      <c r="J28" s="20" t="str">
         <f aca="false">S8</f>
         <v>-</v>
       </c>
-      <c r="K28" s="19" t="str">
+      <c r="K28" s="20" t="str">
         <f aca="false">U8</f>
         <v>-</v>
       </c>
-      <c r="L28" s="19" t="str">
+      <c r="L28" s="20" t="str">
         <f aca="false">W8</f>
         <v>-</v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="20" t="str">
         <f aca="false">Y8</f>
         <v>-</v>
       </c>
-      <c r="N28" s="19" t="str">
+      <c r="N28" s="20" t="str">
         <f aca="false">AA8</f>
         <v>-</v>
       </c>
-      <c r="O28" s="19" t="str">
+      <c r="O28" s="20" t="str">
         <f aca="false">AC8</f>
         <v>-</v>
       </c>
-      <c r="P28" s="19" t="str">
+      <c r="P28" s="20" t="str">
         <f aca="false">AE8</f>
         <v>-</v>
       </c>
-      <c r="Q28" s="19" t="str">
+      <c r="Q28" s="20" t="str">
         <f aca="false">AG8</f>
         <v>-</v>
       </c>
-      <c r="R28" s="19" t="str">
+      <c r="R28" s="20" t="str">
         <f aca="false">AI8</f>
         <v>-</v>
       </c>
-      <c r="S28" s="19" t="str">
+      <c r="S28" s="20" t="str">
         <f aca="false">AK8</f>
         <v>-</v>
       </c>
-      <c r="T28" s="19" t="str">
+      <c r="T28" s="20" t="str">
         <f aca="false">AM8</f>
         <v>-</v>
       </c>
-      <c r="U28" s="19" t="str">
+      <c r="U28" s="20" t="str">
         <f aca="false">AO8</f>
         <v>-</v>
       </c>
-      <c r="V28" s="19" t="str">
+      <c r="V28" s="20" t="str">
         <f aca="false">AQ8</f>
         <v>-</v>
       </c>
-      <c r="W28" s="19" t="str">
+      <c r="W28" s="20" t="str">
         <f aca="false">AS8</f>
         <v>-</v>
       </c>
-      <c r="X28" s="19" t="str">
+      <c r="X28" s="20" t="str">
         <f aca="false">AU8</f>
         <v>-</v>
       </c>
-      <c r="Y28" s="19" t="str">
+      <c r="Y28" s="20" t="str">
         <f aca="false">AW8</f>
         <v>-</v>
       </c>
@@ -3428,99 +3392,99 @@
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="19" t="str">
+      <c r="B29" s="20" t="str">
         <f aca="false">C9</f>
         <v>-</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="20" t="str">
         <f aca="false">E9</f>
         <v>-</v>
       </c>
-      <c r="D29" s="19" t="str">
+      <c r="D29" s="20" t="str">
         <f aca="false">G9</f>
         <v>-</v>
       </c>
-      <c r="E29" s="19" t="str">
+      <c r="E29" s="20" t="str">
         <f aca="false">I9</f>
         <v>-</v>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="20" t="str">
         <f aca="false">K9</f>
         <v>-</v>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="20" t="str">
         <f aca="false">M9</f>
         <v>-</v>
       </c>
-      <c r="H29" s="19" t="str">
+      <c r="H29" s="20" t="str">
         <f aca="false">O9</f>
         <v>-</v>
       </c>
-      <c r="I29" s="19" t="str">
+      <c r="I29" s="20" t="str">
         <f aca="false">Q9</f>
         <v>-</v>
       </c>
-      <c r="J29" s="19" t="str">
+      <c r="J29" s="20" t="str">
         <f aca="false">S9</f>
         <v>-</v>
       </c>
-      <c r="K29" s="19" t="str">
+      <c r="K29" s="20" t="str">
         <f aca="false">U9</f>
         <v>-</v>
       </c>
-      <c r="L29" s="19" t="str">
+      <c r="L29" s="20" t="str">
         <f aca="false">W9</f>
         <v>-</v>
       </c>
-      <c r="M29" s="19" t="str">
+      <c r="M29" s="20" t="str">
         <f aca="false">Y9</f>
         <v>-</v>
       </c>
-      <c r="N29" s="19" t="str">
+      <c r="N29" s="20" t="str">
         <f aca="false">AA9</f>
         <v>-</v>
       </c>
-      <c r="O29" s="19" t="str">
+      <c r="O29" s="20" t="str">
         <f aca="false">AC9</f>
         <v>-</v>
       </c>
-      <c r="P29" s="19" t="str">
+      <c r="P29" s="20" t="str">
         <f aca="false">AE9</f>
         <v>-</v>
       </c>
-      <c r="Q29" s="19" t="str">
+      <c r="Q29" s="20" t="str">
         <f aca="false">AG9</f>
         <v>-</v>
       </c>
-      <c r="R29" s="19" t="str">
+      <c r="R29" s="20" t="str">
         <f aca="false">AI9</f>
         <v>-</v>
       </c>
-      <c r="S29" s="19" t="str">
+      <c r="S29" s="20" t="str">
         <f aca="false">AK9</f>
         <v>-</v>
       </c>
-      <c r="T29" s="19" t="str">
+      <c r="T29" s="20" t="str">
         <f aca="false">AM9</f>
         <v>-</v>
       </c>
-      <c r="U29" s="19" t="str">
+      <c r="U29" s="20" t="str">
         <f aca="false">AO9</f>
         <v>-</v>
       </c>
-      <c r="V29" s="19" t="str">
+      <c r="V29" s="20" t="str">
         <f aca="false">AQ9</f>
         <v>-</v>
       </c>
-      <c r="W29" s="19" t="str">
+      <c r="W29" s="20" t="str">
         <f aca="false">AS9</f>
         <v>-</v>
       </c>
-      <c r="X29" s="19" t="str">
+      <c r="X29" s="20" t="str">
         <f aca="false">AU9</f>
         <v>-</v>
       </c>
-      <c r="Y29" s="19" t="str">
+      <c r="Y29" s="20" t="str">
         <f aca="false">AW9</f>
         <v>-</v>
       </c>
@@ -3533,99 +3497,99 @@
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="20" t="str">
         <f aca="false">C10</f>
         <v>-</v>
       </c>
-      <c r="C30" s="19" t="str">
+      <c r="C30" s="20" t="str">
         <f aca="false">E10</f>
         <v>-</v>
       </c>
-      <c r="D30" s="19" t="str">
+      <c r="D30" s="20" t="str">
         <f aca="false">G10</f>
         <v>-</v>
       </c>
-      <c r="E30" s="19" t="str">
+      <c r="E30" s="20" t="str">
         <f aca="false">I10</f>
         <v>-</v>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="20" t="str">
         <f aca="false">K10</f>
         <v>-</v>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="20" t="str">
         <f aca="false">M10</f>
         <v>-</v>
       </c>
-      <c r="H30" s="19" t="str">
+      <c r="H30" s="20" t="str">
         <f aca="false">O10</f>
         <v>-</v>
       </c>
-      <c r="I30" s="19" t="str">
+      <c r="I30" s="20" t="str">
         <f aca="false">Q10</f>
         <v>-</v>
       </c>
-      <c r="J30" s="19" t="str">
+      <c r="J30" s="20" t="str">
         <f aca="false">S10</f>
         <v>-</v>
       </c>
-      <c r="K30" s="19" t="str">
+      <c r="K30" s="20" t="str">
         <f aca="false">U10</f>
         <v>-</v>
       </c>
-      <c r="L30" s="19" t="str">
+      <c r="L30" s="20" t="str">
         <f aca="false">W10</f>
         <v>-</v>
       </c>
-      <c r="M30" s="19" t="str">
+      <c r="M30" s="20" t="str">
         <f aca="false">Y10</f>
         <v>-</v>
       </c>
-      <c r="N30" s="19" t="str">
+      <c r="N30" s="20" t="str">
         <f aca="false">AA10</f>
         <v>-</v>
       </c>
-      <c r="O30" s="19" t="str">
+      <c r="O30" s="20" t="str">
         <f aca="false">AC10</f>
         <v>-</v>
       </c>
-      <c r="P30" s="19" t="str">
+      <c r="P30" s="20" t="str">
         <f aca="false">AE10</f>
         <v>-</v>
       </c>
-      <c r="Q30" s="19" t="str">
+      <c r="Q30" s="20" t="str">
         <f aca="false">AG10</f>
         <v>-</v>
       </c>
-      <c r="R30" s="19" t="str">
+      <c r="R30" s="20" t="str">
         <f aca="false">AI10</f>
         <v>-</v>
       </c>
-      <c r="S30" s="19" t="str">
+      <c r="S30" s="20" t="str">
         <f aca="false">AK10</f>
         <v>-</v>
       </c>
-      <c r="T30" s="19" t="str">
+      <c r="T30" s="20" t="str">
         <f aca="false">AM10</f>
         <v>-</v>
       </c>
-      <c r="U30" s="19" t="str">
+      <c r="U30" s="20" t="str">
         <f aca="false">AO10</f>
         <v>-</v>
       </c>
-      <c r="V30" s="19" t="str">
+      <c r="V30" s="20" t="str">
         <f aca="false">AQ10</f>
         <v>-</v>
       </c>
-      <c r="W30" s="19" t="str">
+      <c r="W30" s="20" t="str">
         <f aca="false">AS10</f>
         <v>-</v>
       </c>
-      <c r="X30" s="19" t="str">
+      <c r="X30" s="20" t="str">
         <f aca="false">AU10</f>
         <v>-</v>
       </c>
-      <c r="Y30" s="19" t="str">
+      <c r="Y30" s="20" t="str">
         <f aca="false">AW10</f>
         <v>-</v>
       </c>
@@ -3638,99 +3602,99 @@
       <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B31" s="20" t="str">
         <f aca="false">C11</f>
         <v>-</v>
       </c>
-      <c r="C31" s="19" t="str">
+      <c r="C31" s="20" t="str">
         <f aca="false">E11</f>
         <v>-</v>
       </c>
-      <c r="D31" s="19" t="str">
+      <c r="D31" s="20" t="str">
         <f aca="false">G11</f>
         <v>-</v>
       </c>
-      <c r="E31" s="19" t="str">
+      <c r="E31" s="20" t="str">
         <f aca="false">I11</f>
         <v>-</v>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="20" t="str">
         <f aca="false">K11</f>
         <v>-</v>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="20" t="str">
         <f aca="false">M11</f>
         <v>-</v>
       </c>
-      <c r="H31" s="19" t="str">
+      <c r="H31" s="20" t="str">
         <f aca="false">O11</f>
         <v>-</v>
       </c>
-      <c r="I31" s="19" t="str">
+      <c r="I31" s="20" t="str">
         <f aca="false">Q11</f>
         <v>-</v>
       </c>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="20" t="str">
         <f aca="false">S11</f>
         <v>-</v>
       </c>
-      <c r="K31" s="19" t="str">
+      <c r="K31" s="20" t="str">
         <f aca="false">U11</f>
         <v>-</v>
       </c>
-      <c r="L31" s="19" t="str">
+      <c r="L31" s="20" t="str">
         <f aca="false">W11</f>
         <v>-</v>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="20" t="str">
         <f aca="false">Y11</f>
         <v>-</v>
       </c>
-      <c r="N31" s="19" t="str">
+      <c r="N31" s="20" t="str">
         <f aca="false">AA11</f>
         <v>-</v>
       </c>
-      <c r="O31" s="19" t="str">
+      <c r="O31" s="20" t="str">
         <f aca="false">AC11</f>
         <v>-</v>
       </c>
-      <c r="P31" s="19" t="str">
+      <c r="P31" s="20" t="str">
         <f aca="false">AE11</f>
         <v>-</v>
       </c>
-      <c r="Q31" s="19" t="str">
+      <c r="Q31" s="20" t="str">
         <f aca="false">AG11</f>
         <v>-</v>
       </c>
-      <c r="R31" s="19" t="str">
+      <c r="R31" s="20" t="str">
         <f aca="false">AI11</f>
         <v>-</v>
       </c>
-      <c r="S31" s="19" t="str">
+      <c r="S31" s="20" t="str">
         <f aca="false">AK11</f>
         <v>-</v>
       </c>
-      <c r="T31" s="19" t="str">
+      <c r="T31" s="20" t="str">
         <f aca="false">AM11</f>
         <v>-</v>
       </c>
-      <c r="U31" s="19" t="str">
+      <c r="U31" s="20" t="str">
         <f aca="false">AO11</f>
         <v>-</v>
       </c>
-      <c r="V31" s="19" t="str">
+      <c r="V31" s="20" t="str">
         <f aca="false">AQ11</f>
         <v>-</v>
       </c>
-      <c r="W31" s="19" t="str">
+      <c r="W31" s="20" t="str">
         <f aca="false">AS11</f>
         <v>-</v>
       </c>
-      <c r="X31" s="19" t="str">
+      <c r="X31" s="20" t="str">
         <f aca="false">AU11</f>
         <v>-</v>
       </c>
-      <c r="Y31" s="19" t="str">
+      <c r="Y31" s="20" t="str">
         <f aca="false">AW11</f>
         <v>-</v>
       </c>
@@ -3739,126 +3703,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="12" t="n">
-        <f aca="false">SUM(B26:B30)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="12" t="n">
-        <f aca="false">SUM(C26:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="12" t="n">
-        <f aca="false">SUM(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="12" t="n">
-        <f aca="false">SUM(E26:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="12" t="n">
-        <f aca="false">SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="12" t="n">
-        <f aca="false">SUM(G26:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="12" t="n">
-        <f aca="false">SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="12" t="n">
-        <f aca="false">SUM(I26:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="12" t="n">
-        <f aca="false">SUM(J26:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="12" t="n">
-        <f aca="false">SUM(K26:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="12" t="n">
-        <f aca="false">SUM(L26:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="12" t="n">
-        <f aca="false">SUM(M26:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="12" t="n">
-        <f aca="false">SUM(N26:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="12" t="n">
-        <f aca="false">SUM(O26:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="12" t="n">
-        <f aca="false">SUM(P26:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="12" t="n">
-        <f aca="false">SUM(Q26:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="12" t="n">
-        <f aca="false">SUM(R26:R30)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="12" t="n">
-        <f aca="false">SUM(S26:S30)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="12" t="n">
-        <f aca="false">SUM(T26:T30)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="12" t="n">
-        <f aca="false">SUM(U26:U30)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="12" t="n">
-        <f aca="false">SUM(V26:V30)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="12" t="n">
-        <f aca="false">SUM(W26:W30)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="12" t="n">
-        <f aca="false">SUM(X26:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="12" t="n">
-        <f aca="false">SUM(Y26:Y30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="10"/>
+      <c r="B32" s="20" t="str">
+        <f aca="false">C12</f>
+        <v>-</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f aca="false">E12</f>
+        <v>-</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f aca="false">G12</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="20" t="str">
+        <f aca="false">I12</f>
+        <v>-</v>
+      </c>
+      <c r="F32" s="20" t="str">
+        <f aca="false">K12</f>
+        <v>-</v>
+      </c>
+      <c r="G32" s="20" t="str">
+        <f aca="false">M12</f>
+        <v>-</v>
+      </c>
+      <c r="H32" s="20" t="str">
+        <f aca="false">O12</f>
+        <v>-</v>
+      </c>
+      <c r="I32" s="20" t="str">
+        <f aca="false">Q12</f>
+        <v>-</v>
+      </c>
+      <c r="J32" s="20" t="str">
+        <f aca="false">S12</f>
+        <v>-</v>
+      </c>
+      <c r="K32" s="20" t="str">
+        <f aca="false">U12</f>
+        <v>-</v>
+      </c>
+      <c r="L32" s="20" t="str">
+        <f aca="false">W12</f>
+        <v>-</v>
+      </c>
+      <c r="M32" s="20" t="str">
+        <f aca="false">Y12</f>
+        <v>-</v>
+      </c>
+      <c r="N32" s="20" t="str">
+        <f aca="false">AA12</f>
+        <v>-</v>
+      </c>
+      <c r="O32" s="20" t="str">
+        <f aca="false">AC12</f>
+        <v>-</v>
+      </c>
+      <c r="P32" s="20" t="str">
+        <f aca="false">AE12</f>
+        <v>-</v>
+      </c>
+      <c r="Q32" s="20" t="str">
+        <f aca="false">AG12</f>
+        <v>-</v>
+      </c>
+      <c r="R32" s="20" t="str">
+        <f aca="false">AI12</f>
+        <v>-</v>
+      </c>
+      <c r="S32" s="20" t="str">
+        <f aca="false">AK12</f>
+        <v>-</v>
+      </c>
+      <c r="T32" s="20" t="str">
+        <f aca="false">AM12</f>
+        <v>-</v>
+      </c>
+      <c r="U32" s="20" t="str">
+        <f aca="false">AO12</f>
+        <v>-</v>
+      </c>
+      <c r="V32" s="20" t="str">
+        <f aca="false">AQ12</f>
+        <v>-</v>
+      </c>
+      <c r="W32" s="20" t="str">
+        <f aca="false">AS12</f>
+        <v>-</v>
+      </c>
+      <c r="X32" s="20" t="str">
+        <f aca="false">AU12</f>
+        <v>-</v>
+      </c>
+      <c r="Y32" s="20" t="str">
+        <f aca="false">AW12</f>
+        <v>-</v>
+      </c>
+      <c r="Z32" s="10" t="n">
+        <f aca="false">SUM(A32:Y32)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z33" s="10" t="n">
-        <f aca="false">SUM(Z26:Z31)</f>
-        <v>0</v>
-      </c>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="12" t="n">
+        <f aca="false">SUM(B27:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="n">
+        <f aca="false">SUM(C27:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="12" t="n">
+        <f aca="false">SUM(D27:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="n">
+        <f aca="false">SUM(E27:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <f aca="false">SUM(F27:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="12" t="n">
+        <f aca="false">SUM(G27:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="n">
+        <f aca="false">SUM(H27:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12" t="n">
+        <f aca="false">SUM(I27:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="12" t="n">
+        <f aca="false">SUM(J27:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12" t="n">
+        <f aca="false">SUM(K27:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12" t="n">
+        <f aca="false">SUM(L27:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12" t="n">
+        <f aca="false">SUM(M27:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="12" t="n">
+        <f aca="false">SUM(N27:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="12" t="n">
+        <f aca="false">SUM(O27:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="12" t="n">
+        <f aca="false">SUM(P27:P31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12" t="n">
+        <f aca="false">SUM(Q27:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="12" t="n">
+        <f aca="false">SUM(R27:R31)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="12" t="n">
+        <f aca="false">SUM(S27:S31)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="12" t="n">
+        <f aca="false">SUM(T27:T31)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="12" t="n">
+        <f aca="false">SUM(U27:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="12" t="n">
+        <f aca="false">SUM(V27:V31)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="12" t="n">
+        <f aca="false">SUM(W27:W31)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="12" t="n">
+        <f aca="false">SUM(X27:X31)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="12" t="n">
+        <f aca="false">SUM(Y27:Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="20"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z34" s="10" t="n">
+        <f aca="false">SUM(Z27:Z32)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="21"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="77">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3900,30 +3974,42 @@
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3943,11 +4029,11 @@
   </sheetPr>
   <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
@@ -3959,29 +4045,29 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>25</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
